--- a/output/3_Regression/h19_test/h21table_mape.xlsx
+++ b/output/3_Regression/h19_test/h21table_mape.xlsx
@@ -492,7 +492,7 @@
         <v>1.208948922910685</v>
       </c>
       <c r="F5">
-        <v>1.310727494203159</v>
+        <v>1.310727494203158</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/output/3_Regression/h19_test/h21table_mape.xlsx
+++ b/output/3_Regression/h19_test/h21table_mape.xlsx
@@ -432,7 +432,7 @@
         <v>1.993007607790323</v>
       </c>
       <c r="F2">
-        <v>1.970821257678496</v>
+        <v>1.970821257678495</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -472,7 +472,7 @@
         <v>1.344507270471044</v>
       </c>
       <c r="F4">
-        <v>1.417045542066239</v>
+        <v>1.417045542066238</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -532,7 +532,7 @@
         <v>1.063739314137579</v>
       </c>
       <c r="F7">
-        <v>1.201505669856953</v>
+        <v>1.201505669856952</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -552,7 +552,7 @@
         <v>1.017018021770223</v>
       </c>
       <c r="F8">
-        <v>1.16452630874624</v>
+        <v>1.164526308746239</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -572,7 +572,7 @@
         <v>0.9933553650057406</v>
       </c>
       <c r="F9">
-        <v>1.137670016625578</v>
+        <v>1.137670016625577</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -612,7 +612,7 @@
         <v>0.9695773707761732</v>
       </c>
       <c r="F11">
-        <v>1.10019311665034</v>
+        <v>1.100193116650339</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -632,7 +632,7 @@
         <v>0.9596820127390643</v>
       </c>
       <c r="F12">
-        <v>1.088447611418511</v>
+        <v>1.08844761141851</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -652,7 +652,7 @@
         <v>0.9525019855250386</v>
       </c>
       <c r="F13">
-        <v>1.078356298117777</v>
+        <v>1.078356298117776</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h21table_mape.xlsx
+++ b/output/3_Regression/h19_test/h21table_mape.xlsx
@@ -432,7 +432,7 @@
         <v>1.993007607790323</v>
       </c>
       <c r="F2">
-        <v>1.970821257678495</v>
+        <v>1.970821257678497</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,7 +452,7 @@
         <v>1.561375546780502</v>
       </c>
       <c r="F3">
-        <v>1.606532421167281</v>
+        <v>1.606532421167282</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>1.344507270471044</v>
       </c>
       <c r="F4">
-        <v>1.417045542066238</v>
+        <v>1.417045542066239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -492,7 +492,7 @@
         <v>1.208948922910685</v>
       </c>
       <c r="F5">
-        <v>1.310727494203158</v>
+        <v>1.310727494203159</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -532,7 +532,7 @@
         <v>1.063739314137579</v>
       </c>
       <c r="F7">
-        <v>1.201505669856952</v>
+        <v>1.201505669856953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -572,7 +572,7 @@
         <v>0.9933553650057406</v>
       </c>
       <c r="F9">
-        <v>1.137670016625577</v>
+        <v>1.137670016625578</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/output/3_Regression/h19_test/h21table_mape.xlsx
+++ b/output/3_Regression/h19_test/h21table_mape.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_33E74307DA30921FD2FE31D2F8F2D3C214D9DEDD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B650CD52-526C-410E-B7AF-5F3E62DED224}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -37,8 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,24 +99,158 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +357,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +533,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -415,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -423,24 +570,24 @@
         <v>0.118443335391639</v>
       </c>
       <c r="C2">
-        <v>9.928845424101326</v>
+        <v>9.9288454241013255</v>
       </c>
       <c r="D2">
-        <v>2.063260476286708</v>
+        <v>2.0632604762867079</v>
       </c>
       <c r="E2">
-        <v>1.993007607790323</v>
+        <v>1.9930076077903229</v>
       </c>
       <c r="F2">
-        <v>1.970821257678497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1.9708212576784969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1697314644890038</v>
+        <v>0.16973146448900381</v>
       </c>
       <c r="C3">
         <v>6.265559196905639</v>
@@ -449,64 +596,64 @@
         <v>1.567297421424473</v>
       </c>
       <c r="E3">
-        <v>1.561375546780502</v>
+        <v>1.5613755467805019</v>
       </c>
       <c r="F3">
         <v>1.606532421167282</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2138486941336949</v>
+        <v>0.21384869413369489</v>
       </c>
       <c r="C4">
-        <v>4.474501030949263</v>
+        <v>4.4745010309492628</v>
       </c>
       <c r="D4">
-        <v>1.34420020340128</v>
+        <v>1.3442002034012801</v>
       </c>
       <c r="E4">
-        <v>1.344507270471044</v>
+        <v>1.3445072704710439</v>
       </c>
       <c r="F4">
-        <v>1.417045542066239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.4170455420662389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2505185891988063</v>
+        <v>0.25051858919880632</v>
       </c>
       <c r="C5">
-        <v>3.432932613617077</v>
+        <v>3.4329326136170768</v>
       </c>
       <c r="D5">
-        <v>1.217466715559747</v>
+        <v>1.2174667155597469</v>
       </c>
       <c r="E5">
-        <v>1.208948922910685</v>
+        <v>1.2089489229106849</v>
       </c>
       <c r="F5">
         <v>1.310727494203159</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2805692449078064</v>
+        <v>0.28056924490780638</v>
       </c>
       <c r="C6">
-        <v>2.756422140145433</v>
+        <v>2.7564221401454332</v>
       </c>
       <c r="D6">
-        <v>1.130006651281735</v>
+        <v>1.1300066512817351</v>
       </c>
       <c r="E6">
         <v>1.133376954781161</v>
@@ -515,32 +662,32 @@
         <v>1.248724439984739</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.3056193901935312</v>
+        <v>0.30561939019353118</v>
       </c>
       <c r="C7">
-        <v>2.273881101028774</v>
+        <v>2.2738811010287741</v>
       </c>
       <c r="D7">
         <v>1.059906327095002</v>
       </c>
       <c r="E7">
-        <v>1.063739314137579</v>
+        <v>1.0637393141375791</v>
       </c>
       <c r="F7">
-        <v>1.201505669856953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1.2015056698569531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.3272282263332161</v>
+        <v>0.32722822633321608</v>
       </c>
       <c r="C8">
         <v>1.902577269595694</v>
@@ -549,113 +696,395 @@
         <v>1.005413638713692</v>
       </c>
       <c r="E8">
-        <v>1.017018021770223</v>
+        <v>1.0170180217702229</v>
       </c>
       <c r="F8">
         <v>1.164526308746239</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.3466469874337769</v>
+        <v>0.34664698743377692</v>
       </c>
       <c r="C9">
         <v>1.599773505780768</v>
       </c>
       <c r="D9">
-        <v>0.9652054165579297</v>
+        <v>0.96520541655792969</v>
       </c>
       <c r="E9">
-        <v>0.9933553650057406</v>
+        <v>0.99335536500574062</v>
       </c>
       <c r="F9">
         <v>1.137670016625578</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.3648146980598179</v>
+        <v>0.36481469805981792</v>
       </c>
       <c r="C10">
         <v>1.360351335662138</v>
       </c>
       <c r="D10">
-        <v>0.9297341794574087</v>
+        <v>0.92973417945740866</v>
       </c>
       <c r="E10">
-        <v>0.9801500781325351</v>
+        <v>0.98015007813253507</v>
       </c>
       <c r="F10">
         <v>1.116355383484978</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.3821316877101094</v>
+        <v>0.38213168771010941</v>
       </c>
       <c r="C11">
         <v>1.203735658117054</v>
       </c>
       <c r="D11">
-        <v>0.897889823481386</v>
+        <v>0.89788982348138602</v>
       </c>
       <c r="E11">
-        <v>0.9695773707761732</v>
+        <v>0.96957737077617323</v>
       </c>
       <c r="F11">
-        <v>1.100193116650339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1.1001931166503389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.3985418405556025</v>
+        <v>0.39854184055560249</v>
       </c>
       <c r="C12">
-        <v>1.100797410325168</v>
+        <v>1.1007974103251681</v>
       </c>
       <c r="D12">
-        <v>0.8685932850950036</v>
+        <v>0.86859328509500355</v>
       </c>
       <c r="E12">
-        <v>0.9596820127390643</v>
+        <v>0.95968201273906428</v>
       </c>
       <c r="F12">
         <v>1.08844761141851</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.4138320067378942</v>
+        <v>0.41383200673789422</v>
       </c>
       <c r="C13">
         <v>1.033325134515565</v>
       </c>
       <c r="D13">
-        <v>0.842926368766452</v>
+        <v>0.84292636876645199</v>
       </c>
       <c r="E13">
-        <v>0.9525019855250386</v>
+        <v>0.95250198552503862</v>
       </c>
       <c r="F13">
-        <v>1.078356298117776</v>
+        <v>1.0783562981177759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.118443335391639</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.16973146448900381</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.21384869413369489</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.25051858919880632</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.28056924490780638</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.30561939019353118</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.32722822633321602</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.34664698743377692</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.36481469805981792</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.38213168771010941</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.39854184055560249</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.41383200673789422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9.9288454241013255</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.2655591969056399</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.4745010309492628</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.4329326136170768</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.7564221401454332</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.2738811010287741</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.902577269595694</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.599773505780768</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.360351335662138</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.203735658117054</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.1007974103251681</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.033325134515565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.0632604762867079</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.567297421424473</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.3442002034012801</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.2174667155597469</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.1300066512817351</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.059906327095002</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.005413638713692</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.96520541655792969</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.92973417945740866</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.89788982348138602</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.86859328509500355</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.84292636876645199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.9930076077903229</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.5613755467805019</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.3445072704710399</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.2089489229106849</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.133376954781161</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.0637393141375791</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.01701802177022</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.99335536500574062</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.98015007813253507</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.96957737077617323</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.95968201273906428</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.95250198552503862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.9708212576785</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.606532421167282</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.4170455420662389</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.310727494203159</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.248724439984739</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.2015056698569531</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.1645263087462401</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.13767001662558</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1.116355383484978</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.1001931166503389</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1.08844761141851</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.0783562981177759</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B17:B20">
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D20">
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E20">
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F20">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G20">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H20">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I20">
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K20">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L20">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:M20">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/3_Regression/h19_test/h21table_mape.xlsx
+++ b/output/3_Regression/h19_test/h21table_mape.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_33E74307DA30921FD2FE31D2F8F2D3C214D9DEDD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B650CD52-526C-410E-B7AF-5F3E62DED224}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -43,11 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,158 +90,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -322,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -357,10 +213,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -562,7 +415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -570,24 +423,24 @@
         <v>0.118443335391639</v>
       </c>
       <c r="C2">
-        <v>9.9288454241013255</v>
+        <v>9.928845424101326</v>
       </c>
       <c r="D2">
-        <v>2.0632604762867079</v>
+        <v>2.063260476286708</v>
       </c>
       <c r="E2">
-        <v>1.9930076077903229</v>
+        <v>1.993007607790323</v>
       </c>
       <c r="F2">
-        <v>1.9708212576784969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.970821257678496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.16973146448900381</v>
+        <v>0.1697314644890038</v>
       </c>
       <c r="C3">
         <v>6.265559196905639</v>
@@ -596,64 +449,64 @@
         <v>1.567297421424473</v>
       </c>
       <c r="E3">
-        <v>1.5613755467805019</v>
+        <v>1.561375546780502</v>
       </c>
       <c r="F3">
-        <v>1.606532421167282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.606532421167281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.21384869413369489</v>
+        <v>0.2138486941336949</v>
       </c>
       <c r="C4">
-        <v>4.4745010309492628</v>
+        <v>4.474501030949263</v>
       </c>
       <c r="D4">
-        <v>1.3442002034012801</v>
+        <v>1.34420020340128</v>
       </c>
       <c r="E4">
-        <v>1.3445072704710439</v>
+        <v>1.344507270471044</v>
       </c>
       <c r="F4">
-        <v>1.4170455420662389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.417045542066238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.25051858919880632</v>
+        <v>0.2505185891988063</v>
       </c>
       <c r="C5">
-        <v>3.4329326136170768</v>
+        <v>3.432932613617077</v>
       </c>
       <c r="D5">
-        <v>1.2174667155597469</v>
+        <v>1.217466715559747</v>
       </c>
       <c r="E5">
-        <v>1.2089489229106849</v>
+        <v>1.208948922910685</v>
       </c>
       <c r="F5">
-        <v>1.310727494203159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.310727494203158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.28056924490780638</v>
+        <v>0.2805692449078064</v>
       </c>
       <c r="C6">
-        <v>2.7564221401454332</v>
+        <v>2.756422140145433</v>
       </c>
       <c r="D6">
-        <v>1.1300066512817351</v>
+        <v>1.130006651281735</v>
       </c>
       <c r="E6">
         <v>1.133376954781161</v>
@@ -662,32 +515,32 @@
         <v>1.248724439984739</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.30561939019353118</v>
+        <v>0.3056193901935312</v>
       </c>
       <c r="C7">
-        <v>2.2738811010287741</v>
+        <v>2.273881101028774</v>
       </c>
       <c r="D7">
         <v>1.059906327095002</v>
       </c>
       <c r="E7">
-        <v>1.0637393141375791</v>
+        <v>1.063739314137579</v>
       </c>
       <c r="F7">
-        <v>1.2015056698569531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.201505669856952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.32722822633321608</v>
+        <v>0.3272282263332161</v>
       </c>
       <c r="C8">
         <v>1.902577269595694</v>
@@ -696,395 +549,113 @@
         <v>1.005413638713692</v>
       </c>
       <c r="E8">
-        <v>1.0170180217702229</v>
+        <v>1.017018021770223</v>
       </c>
       <c r="F8">
         <v>1.164526308746239</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.34664698743377692</v>
+        <v>0.3466469874337769</v>
       </c>
       <c r="C9">
         <v>1.599773505780768</v>
       </c>
       <c r="D9">
-        <v>0.96520541655792969</v>
+        <v>0.9652054165579297</v>
       </c>
       <c r="E9">
-        <v>0.99335536500574062</v>
+        <v>0.9933553650057406</v>
       </c>
       <c r="F9">
-        <v>1.137670016625578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.137670016625577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.36481469805981792</v>
+        <v>0.3648146980598179</v>
       </c>
       <c r="C10">
         <v>1.360351335662138</v>
       </c>
       <c r="D10">
-        <v>0.92973417945740866</v>
+        <v>0.9297341794574087</v>
       </c>
       <c r="E10">
-        <v>0.98015007813253507</v>
+        <v>0.9801500781325351</v>
       </c>
       <c r="F10">
         <v>1.116355383484978</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.38213168771010941</v>
+        <v>0.3821316877101094</v>
       </c>
       <c r="C11">
         <v>1.203735658117054</v>
       </c>
       <c r="D11">
-        <v>0.89788982348138602</v>
+        <v>0.897889823481386</v>
       </c>
       <c r="E11">
-        <v>0.96957737077617323</v>
+        <v>0.9695773707761732</v>
       </c>
       <c r="F11">
-        <v>1.1001931166503389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.100193116650339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.39854184055560249</v>
+        <v>0.3985418405556025</v>
       </c>
       <c r="C12">
-        <v>1.1007974103251681</v>
+        <v>1.100797410325168</v>
       </c>
       <c r="D12">
-        <v>0.86859328509500355</v>
+        <v>0.8685932850950036</v>
       </c>
       <c r="E12">
-        <v>0.95968201273906428</v>
+        <v>0.9596820127390643</v>
       </c>
       <c r="F12">
         <v>1.08844761141851</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.41383200673789422</v>
+        <v>0.4138320067378942</v>
       </c>
       <c r="C13">
         <v>1.033325134515565</v>
       </c>
       <c r="D13">
-        <v>0.84292636876645199</v>
+        <v>0.842926368766452</v>
       </c>
       <c r="E13">
-        <v>0.95250198552503862</v>
+        <v>0.9525019855250386</v>
       </c>
       <c r="F13">
-        <v>1.0783562981177759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>9</v>
-      </c>
-      <c r="K15" s="1">
-        <v>10</v>
-      </c>
-      <c r="L15" s="1">
-        <v>11</v>
-      </c>
-      <c r="M15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.118443335391639</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.16973146448900381</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.21384869413369489</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.25051858919880632</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.28056924490780638</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.30561939019353118</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.32722822633321602</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.34664698743377692</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.36481469805981792</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.38213168771010941</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.39854184055560249</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.41383200673789422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9.9288454241013255</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6.2655591969056399</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4.4745010309492628</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3.4329326136170768</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.7564221401454332</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2.2738811010287741</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1.902577269595694</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.599773505780768</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1.360351335662138</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.203735658117054</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1.1007974103251681</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.033325134515565</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2.0632604762867079</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.567297421424473</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.3442002034012801</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.2174667155597469</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.1300066512817351</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.059906327095002</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.005413638713692</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.96520541655792969</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.92973417945740866</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.89788982348138602</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.86859328509500355</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.84292636876645199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1.9930076077903229</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.5613755467805019</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.3445072704710399</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.2089489229106849</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.133376954781161</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.0637393141375791</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1.01701802177022</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.99335536500574062</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.98015007813253507</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.96957737077617323</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.95968201273906428</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.95250198552503862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.9708212576785</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.606532421167282</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.4170455420662389</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.310727494203159</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.248724439984739</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1.2015056698569531</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1.1645263087462401</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1.13767001662558</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1.116355383484978</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1.1001931166503389</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1.08844761141851</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1.0783562981177759</v>
+        <v>1.078356298117776</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:B20">
-    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C20">
-    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D20">
-    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F20">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G20">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H20">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I20">
-    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K20">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L20">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M20">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>